--- a/ALL DATA BACKUP.xlsx
+++ b/ALL DATA BACKUP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT IAMI 2021\OJT1 R&amp;D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT IAMI 2021\OJT1 R&amp;D\Competitor Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$145</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1120,14 +1120,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,14 +1409,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH151" sqref="AH151"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1485,7 +1485,7 @@
       <c r="Q1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="32" t="s">
         <v>227</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -1591,7 +1591,7 @@
       <c r="BA1" s="17"/>
       <c r="BB1" s="17"/>
     </row>
-    <row r="2" spans="1:54" ht="15.75">
+    <row r="2" spans="1:54" ht="15.75" hidden="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="BA2" s="17"/>
       <c r="BB2" s="17"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75">
+    <row r="3" spans="1:54" ht="15.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="BA3" s="17"/>
       <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75">
+    <row r="4" spans="1:54" ht="15.75" hidden="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="BA4" s="17"/>
       <c r="BB4" s="17"/>
     </row>
-    <row r="5" spans="1:54" s="28" customFormat="1" ht="15.75">
+    <row r="5" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="BA5" s="27"/>
       <c r="BB5" s="27"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75">
+    <row r="6" spans="1:54" ht="15.75" hidden="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="BA6" s="17"/>
       <c r="BB6" s="17"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75">
+    <row r="7" spans="1:54" ht="15.75" hidden="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="BA7" s="17"/>
       <c r="BB7" s="17"/>
     </row>
-    <row r="8" spans="1:54" s="24" customFormat="1" ht="15.75">
+    <row r="8" spans="1:54" s="24" customFormat="1" ht="15.75" hidden="1">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="BA8" s="19"/>
       <c r="BB8" s="19"/>
     </row>
-    <row r="9" spans="1:54" ht="15.75">
+    <row r="9" spans="1:54" ht="15.75" hidden="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="BA9" s="17"/>
       <c r="BB9" s="17"/>
     </row>
-    <row r="10" spans="1:54" s="31" customFormat="1" ht="15.75">
+    <row r="10" spans="1:54" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="BA10" s="30"/>
       <c r="BB10" s="30"/>
     </row>
-    <row r="11" spans="1:54" ht="15.75">
+    <row r="11" spans="1:54" ht="15.75" hidden="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="BA11" s="17"/>
       <c r="BB11" s="17"/>
     </row>
-    <row r="12" spans="1:54" ht="15.75">
+    <row r="12" spans="1:54" ht="15.75" hidden="1">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>110</v>
       </c>
       <c r="M13" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N13" s="1">
         <v>2800</v>
@@ -3325,7 +3325,7 @@
       <c r="BA13" s="17"/>
       <c r="BB13" s="17"/>
     </row>
-    <row r="14" spans="1:54" ht="15.75">
+    <row r="14" spans="1:54" ht="15.75" hidden="1">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="BA14" s="17"/>
       <c r="BB14" s="17"/>
     </row>
-    <row r="15" spans="1:54" ht="15.75">
+    <row r="15" spans="1:54" ht="15.75" hidden="1">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="BA15" s="17"/>
       <c r="BB15" s="17"/>
     </row>
-    <row r="16" spans="1:54" ht="15.75">
+    <row r="16" spans="1:54" ht="15.75" hidden="1">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="BA16" s="17"/>
       <c r="BB16" s="17"/>
     </row>
-    <row r="17" spans="1:54" ht="15.75">
+    <row r="17" spans="1:54" ht="15.75" hidden="1">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="BA17" s="17"/>
       <c r="BB17" s="17"/>
     </row>
-    <row r="18" spans="1:54" ht="15.75">
+    <row r="18" spans="1:54" ht="15.75" hidden="1">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
     </row>
-    <row r="19" spans="1:54" ht="15.75">
+    <row r="19" spans="1:54" ht="15.75" hidden="1">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="1:54" ht="15.75">
+    <row r="20" spans="1:54" ht="15.75" hidden="1">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="1:54" ht="15.75">
+    <row r="21" spans="1:54" ht="15.75" hidden="1">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="BA21" s="17"/>
       <c r="BB21" s="17"/>
     </row>
-    <row r="22" spans="1:54" ht="15.75">
+    <row r="22" spans="1:54" ht="15.75" hidden="1">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="1:54" ht="15.75">
+    <row r="23" spans="1:54" ht="15.75" hidden="1">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
     </row>
-    <row r="24" spans="1:54" ht="15.75">
+    <row r="24" spans="1:54" ht="15.75" hidden="1">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
     </row>
-    <row r="25" spans="1:54" ht="15.75">
+    <row r="25" spans="1:54" ht="15.75" hidden="1">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="BA25" s="17"/>
       <c r="BB25" s="17"/>
     </row>
-    <row r="26" spans="1:54" ht="15.75">
+    <row r="26" spans="1:54" ht="15.75" hidden="1">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="BA26" s="17"/>
       <c r="BB26" s="17"/>
     </row>
-    <row r="27" spans="1:54" ht="15.75">
+    <row r="27" spans="1:54" ht="15.75" hidden="1">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
     </row>
-    <row r="28" spans="1:54" ht="15.75">
+    <row r="28" spans="1:54" ht="15.75" hidden="1">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="1:54" ht="15.75">
+    <row r="29" spans="1:54" ht="15.75" hidden="1">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="BA29" s="17"/>
       <c r="BB29" s="17"/>
     </row>
-    <row r="30" spans="1:54" ht="15.75">
+    <row r="30" spans="1:54" ht="15.75" hidden="1">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="BA30" s="17"/>
       <c r="BB30" s="17"/>
     </row>
-    <row r="31" spans="1:54" ht="15.75">
+    <row r="31" spans="1:54" ht="15.75" hidden="1">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="BA31" s="17"/>
       <c r="BB31" s="17"/>
     </row>
-    <row r="32" spans="1:54" ht="15.75">
+    <row r="32" spans="1:54" ht="15.75" hidden="1">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="BA32" s="17"/>
       <c r="BB32" s="17"/>
     </row>
-    <row r="33" spans="1:54" ht="15.75">
+    <row r="33" spans="1:54" ht="15.75" hidden="1">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="BA33" s="17"/>
       <c r="BB33" s="17"/>
     </row>
-    <row r="34" spans="1:54" ht="15.75">
+    <row r="34" spans="1:54" ht="15.75" hidden="1">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="1:54" ht="15.75">
+    <row r="35" spans="1:54" ht="15.75" hidden="1">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="BA35" s="17"/>
       <c r="BB35" s="17"/>
     </row>
-    <row r="36" spans="1:54" ht="15.75">
+    <row r="36" spans="1:54" ht="15.75" hidden="1">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75">
+    <row r="37" spans="1:54" ht="15.75" hidden="1">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="BA37" s="17"/>
       <c r="BB37" s="17"/>
     </row>
-    <row r="38" spans="1:54" ht="15.75">
+    <row r="38" spans="1:54" ht="15.75" hidden="1">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="1:54" ht="15.75">
+    <row r="39" spans="1:54" ht="15.75" hidden="1">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
@@ -7137,7 +7137,7 @@
       <c r="BA39" s="17"/>
       <c r="BB39" s="17"/>
     </row>
-    <row r="40" spans="1:54" ht="15.75">
+    <row r="40" spans="1:54" ht="15.75" hidden="1">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="BA40" s="17"/>
       <c r="BB40" s="17"/>
     </row>
-    <row r="41" spans="1:54" ht="15.75">
+    <row r="41" spans="1:54" ht="15.75" hidden="1">
       <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="BA41" s="17"/>
       <c r="BB41" s="17"/>
     </row>
-    <row r="42" spans="1:54" ht="15.75">
+    <row r="42" spans="1:54" ht="15.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="1:54" ht="15.75">
+    <row r="43" spans="1:54" ht="15.75" hidden="1">
       <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="BA43" s="17"/>
       <c r="BB43" s="17"/>
     </row>
-    <row r="44" spans="1:54" ht="15.75">
+    <row r="44" spans="1:54" ht="15.75" hidden="1">
       <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="1:54" s="28" customFormat="1" ht="15.75">
+    <row r="45" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -8007,7 +8007,7 @@
       <c r="BA45" s="27"/>
       <c r="BB45" s="27"/>
     </row>
-    <row r="46" spans="1:54" ht="15.75">
+    <row r="46" spans="1:54" ht="15.75" hidden="1">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -8153,7 +8153,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="1:54" ht="15.75">
+    <row r="47" spans="1:54" ht="15.75" hidden="1">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="BA47" s="17"/>
       <c r="BB47" s="17"/>
     </row>
-    <row r="48" spans="1:54" ht="15.75">
+    <row r="48" spans="1:54" ht="15.75" hidden="1">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
     </row>
-    <row r="49" spans="1:54" ht="15.75">
+    <row r="49" spans="1:54" ht="15.75" hidden="1">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="BA49" s="17"/>
       <c r="BB49" s="17"/>
     </row>
-    <row r="50" spans="1:54" s="28" customFormat="1" ht="15.75">
+    <row r="50" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="BA50" s="27"/>
       <c r="BB50" s="27"/>
     </row>
-    <row r="51" spans="1:54" ht="15.75">
+    <row r="51" spans="1:54" ht="15.75" hidden="1">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -8883,7 +8883,7 @@
       <c r="BA51" s="17"/>
       <c r="BB51" s="17"/>
     </row>
-    <row r="52" spans="1:54" ht="15.75">
+    <row r="52" spans="1:54" ht="15.75" hidden="1">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -9029,7 +9029,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="1:54" ht="15.75">
+    <row r="53" spans="1:54" ht="15.75" hidden="1">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="BA53" s="17"/>
       <c r="BB53" s="17"/>
     </row>
-    <row r="54" spans="1:54" ht="15.75">
+    <row r="54" spans="1:54" ht="15.75" hidden="1">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -9321,7 +9321,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="1:54" ht="15.75">
+    <row r="55" spans="1:54" ht="15.75" hidden="1">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -9469,7 +9469,7 @@
       <c r="BA55" s="17"/>
       <c r="BB55" s="17"/>
     </row>
-    <row r="56" spans="1:54" ht="15.75">
+    <row r="56" spans="1:54" ht="15.75" hidden="1">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -9617,7 +9617,7 @@
       <c r="BA56" s="17"/>
       <c r="BB56" s="17"/>
     </row>
-    <row r="57" spans="1:54" ht="15.75">
+    <row r="57" spans="1:54" ht="15.75" hidden="1">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="BA57" s="17"/>
       <c r="BB57" s="17"/>
     </row>
-    <row r="58" spans="1:54" ht="15.75">
+    <row r="58" spans="1:54" ht="15.75" hidden="1">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="BA58" s="17"/>
       <c r="BB58" s="17"/>
     </row>
-    <row r="59" spans="1:54" ht="15.75">
+    <row r="59" spans="1:54" ht="15.75" hidden="1">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="BA59" s="17"/>
       <c r="BB59" s="17"/>
     </row>
-    <row r="60" spans="1:54" ht="15.75">
+    <row r="60" spans="1:54" ht="15.75" hidden="1">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -10209,7 +10209,7 @@
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
     </row>
-    <row r="61" spans="1:54" ht="15.75">
+    <row r="61" spans="1:54" ht="15.75" hidden="1">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="BA61" s="17"/>
       <c r="BB61" s="17"/>
     </row>
-    <row r="62" spans="1:54" ht="15.75">
+    <row r="62" spans="1:54" ht="15.75" hidden="1">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
     </row>
-    <row r="63" spans="1:54" ht="15.75">
+    <row r="63" spans="1:54" ht="15.75" hidden="1">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="BA63" s="17"/>
       <c r="BB63" s="17"/>
     </row>
-    <row r="64" spans="1:54" ht="15.75">
+    <row r="64" spans="1:54" ht="15.75" hidden="1">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="1:78" ht="15.75">
+    <row r="65" spans="1:78" ht="15.75" hidden="1">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="BA65" s="17"/>
       <c r="BB65" s="17"/>
     </row>
-    <row r="66" spans="1:78" ht="15.75">
+    <row r="66" spans="1:78" ht="15.75" hidden="1">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -11097,7 +11097,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="1:78" ht="15.75">
+    <row r="67" spans="1:78" ht="15.75" hidden="1">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -11245,7 +11245,7 @@
       <c r="BA67" s="17"/>
       <c r="BB67" s="17"/>
     </row>
-    <row r="68" spans="1:78" ht="15.75">
+    <row r="68" spans="1:78" ht="15.75" hidden="1">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="BA68" s="17"/>
       <c r="BB68" s="17"/>
     </row>
-    <row r="69" spans="1:78" ht="15.75">
+    <row r="69" spans="1:78" ht="15.75" hidden="1">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="BA69" s="17"/>
       <c r="BB69" s="17"/>
     </row>
-    <row r="70" spans="1:78" ht="15.75">
+    <row r="70" spans="1:78" ht="15.75" hidden="1">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -11701,7 +11701,7 @@
       <c r="BA70" s="17"/>
       <c r="BB70" s="17"/>
     </row>
-    <row r="71" spans="1:78" ht="15.75">
+    <row r="71" spans="1:78" ht="15.75" hidden="1">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -11849,7 +11849,7 @@
       <c r="BA71" s="17"/>
       <c r="BB71" s="17"/>
     </row>
-    <row r="72" spans="1:78" ht="15.75">
+    <row r="72" spans="1:78" ht="15.75" hidden="1">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -12005,7 +12005,7 @@
       <c r="BA72" s="17"/>
       <c r="BB72" s="17"/>
     </row>
-    <row r="73" spans="1:78" ht="15.75">
+    <row r="73" spans="1:78" ht="15.75" hidden="1">
       <c r="A73" s="1" t="s">
         <v>137</v>
       </c>
@@ -12159,7 +12159,7 @@
       <c r="BA73" s="17"/>
       <c r="BB73" s="17"/>
     </row>
-    <row r="74" spans="1:78" ht="15.75">
+    <row r="74" spans="1:78" ht="15.75" hidden="1">
       <c r="A74" s="1" t="s">
         <v>137</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="BA74" s="17"/>
       <c r="BB74" s="17"/>
     </row>
-    <row r="75" spans="1:78" ht="15.75">
+    <row r="75" spans="1:78" ht="15.75" hidden="1">
       <c r="A75" s="1" t="s">
         <v>137</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="BA75" s="17"/>
       <c r="BB75" s="17"/>
     </row>
-    <row r="76" spans="1:78" ht="15.75">
+    <row r="76" spans="1:78" ht="15.75" hidden="1">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="BA76" s="17"/>
       <c r="BB76" s="17"/>
     </row>
-    <row r="77" spans="1:78" ht="15.75">
+    <row r="77" spans="1:78" ht="15.75" hidden="1">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -12777,7 +12777,7 @@
       <c r="BA77" s="17"/>
       <c r="BB77" s="17"/>
     </row>
-    <row r="78" spans="1:78" ht="15.75">
+    <row r="78" spans="1:78" ht="15.75" hidden="1">
       <c r="A78" s="1" t="s">
         <v>137</v>
       </c>
@@ -12931,7 +12931,7 @@
       <c r="BA78" s="17"/>
       <c r="BB78" s="17"/>
     </row>
-    <row r="79" spans="1:78" ht="15.75">
+    <row r="79" spans="1:78" ht="15.75" hidden="1">
       <c r="A79" s="1" t="s">
         <v>137</v>
       </c>
@@ -13085,7 +13085,7 @@
       <c r="BA79" s="17"/>
       <c r="BB79" s="17"/>
     </row>
-    <row r="80" spans="1:78" s="28" customFormat="1" ht="15.75">
+    <row r="80" spans="1:78" s="28" customFormat="1" ht="15.75" hidden="1">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -13253,7 +13253,7 @@
       <c r="BY80" s="1"/>
       <c r="BZ80" s="1"/>
     </row>
-    <row r="81" spans="1:78" ht="15.75">
+    <row r="81" spans="1:78" ht="15.75" hidden="1">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -13421,7 +13421,7 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
     </row>
-    <row r="82" spans="1:78" ht="15.75">
+    <row r="82" spans="1:78" ht="15.75" hidden="1">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="BY82" s="1"/>
       <c r="BZ82" s="1"/>
     </row>
-    <row r="83" spans="1:78" ht="15.75">
+    <row r="83" spans="1:78" ht="15.75" hidden="1">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -13757,7 +13757,7 @@
       <c r="BY83" s="1"/>
       <c r="BZ83" s="1"/>
     </row>
-    <row r="84" spans="1:78" ht="15.75">
+    <row r="84" spans="1:78" ht="15.75" hidden="1">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -13925,7 +13925,7 @@
       <c r="BY84" s="1"/>
       <c r="BZ84" s="1"/>
     </row>
-    <row r="85" spans="1:78" ht="15.75">
+    <row r="85" spans="1:78" ht="15.75" hidden="1">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="BY85" s="1"/>
       <c r="BZ85" s="1"/>
     </row>
-    <row r="86" spans="1:78" s="28" customFormat="1" ht="15.75">
+    <row r="86" spans="1:78" s="28" customFormat="1" ht="15.75" hidden="1">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="BY86" s="1"/>
       <c r="BZ86" s="1"/>
     </row>
-    <row r="87" spans="1:78" ht="15.75">
+    <row r="87" spans="1:78" ht="15.75" hidden="1">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -14429,7 +14429,7 @@
       <c r="BY87" s="1"/>
       <c r="BZ87" s="1"/>
     </row>
-    <row r="88" spans="1:78" ht="15.75">
+    <row r="88" spans="1:78" ht="15.75" hidden="1">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -14597,7 +14597,7 @@
       <c r="BY88" s="1"/>
       <c r="BZ88" s="1"/>
     </row>
-    <row r="89" spans="1:78" ht="15.75">
+    <row r="89" spans="1:78" ht="15.75" hidden="1">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="BY89" s="1"/>
       <c r="BZ89" s="1"/>
     </row>
-    <row r="90" spans="1:78" ht="15.75">
+    <row r="90" spans="1:78" ht="15.75" hidden="1">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -14933,7 +14933,7 @@
       <c r="BY90" s="1"/>
       <c r="BZ90" s="1"/>
     </row>
-    <row r="91" spans="1:78" ht="15.75">
+    <row r="91" spans="1:78" ht="15.75" hidden="1">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -15101,7 +15101,7 @@
       <c r="BY91" s="1"/>
       <c r="BZ91" s="1"/>
     </row>
-    <row r="92" spans="1:78" ht="15.75">
+    <row r="92" spans="1:78" ht="15.75" hidden="1">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -15269,7 +15269,7 @@
       <c r="BY92" s="1"/>
       <c r="BZ92" s="1"/>
     </row>
-    <row r="93" spans="1:78" ht="15.75">
+    <row r="93" spans="1:78" ht="15.75" hidden="1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -15437,7 +15437,7 @@
       <c r="BY93" s="1"/>
       <c r="BZ93" s="1"/>
     </row>
-    <row r="94" spans="1:78" ht="15.75">
+    <row r="94" spans="1:78" ht="15.75" hidden="1">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -15605,7 +15605,7 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
     </row>
-    <row r="95" spans="1:78" ht="15.75">
+    <row r="95" spans="1:78" ht="15.75" hidden="1">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -15775,7 +15775,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
     </row>
-    <row r="96" spans="1:78" ht="15.75">
+    <row r="96" spans="1:78" ht="15.75" hidden="1">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -15945,7 +15945,7 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
     </row>
-    <row r="97" spans="1:78" ht="15.75">
+    <row r="97" spans="1:78" ht="15.75" hidden="1">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -16115,7 +16115,7 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
     </row>
-    <row r="98" spans="1:78" ht="15.75">
+    <row r="98" spans="1:78" ht="15.75" hidden="1">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
@@ -16285,7 +16285,7 @@
       <c r="BY98" s="1"/>
       <c r="BZ98" s="1"/>
     </row>
-    <row r="99" spans="1:78" ht="15.75">
+    <row r="99" spans="1:78" ht="15.75" hidden="1">
       <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
@@ -16455,7 +16455,7 @@
       <c r="BY99" s="1"/>
       <c r="BZ99" s="1"/>
     </row>
-    <row r="100" spans="1:78" ht="15.75">
+    <row r="100" spans="1:78" ht="15.75" hidden="1">
       <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
@@ -16625,7 +16625,7 @@
       <c r="BY100" s="1"/>
       <c r="BZ100" s="1"/>
     </row>
-    <row r="101" spans="1:78" ht="15.75">
+    <row r="101" spans="1:78" ht="15.75" hidden="1">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -16801,7 +16801,7 @@
       <c r="BY101" s="1"/>
       <c r="BZ101" s="1"/>
     </row>
-    <row r="102" spans="1:78" ht="15.75">
+    <row r="102" spans="1:78" ht="15.75" hidden="1">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="BY102" s="1"/>
       <c r="BZ102" s="1"/>
     </row>
-    <row r="103" spans="1:78" ht="15.75">
+    <row r="103" spans="1:78" ht="15.75" hidden="1">
       <c r="A103" s="1" t="s">
         <v>92</v>
       </c>
@@ -17153,7 +17153,7 @@
       <c r="BY103" s="1"/>
       <c r="BZ103" s="1"/>
     </row>
-    <row r="104" spans="1:78" ht="15.75">
+    <row r="104" spans="1:78" ht="15.75" hidden="1">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -17329,7 +17329,7 @@
       <c r="BY104" s="1"/>
       <c r="BZ104" s="1"/>
     </row>
-    <row r="105" spans="1:78" ht="15.75">
+    <row r="105" spans="1:78" ht="15.75" hidden="1">
       <c r="A105" s="1" t="s">
         <v>92</v>
       </c>
@@ -17505,7 +17505,7 @@
       <c r="BY105" s="1"/>
       <c r="BZ105" s="1"/>
     </row>
-    <row r="106" spans="1:78" ht="15.75">
+    <row r="106" spans="1:78" ht="15.75" hidden="1">
       <c r="A106" s="1" t="s">
         <v>92</v>
       </c>
@@ -17681,7 +17681,7 @@
       <c r="BY106" s="1"/>
       <c r="BZ106" s="1"/>
     </row>
-    <row r="107" spans="1:78" ht="15.75">
+    <row r="107" spans="1:78" ht="15.75" hidden="1">
       <c r="A107" s="1" t="s">
         <v>92</v>
       </c>
@@ -17857,7 +17857,7 @@
       <c r="BY107" s="1"/>
       <c r="BZ107" s="1"/>
     </row>
-    <row r="108" spans="1:78" ht="15.75">
+    <row r="108" spans="1:78" ht="15.75" hidden="1">
       <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
@@ -18033,7 +18033,7 @@
       <c r="BY108" s="1"/>
       <c r="BZ108" s="1"/>
     </row>
-    <row r="109" spans="1:78" ht="15.75">
+    <row r="109" spans="1:78" ht="15.75" hidden="1">
       <c r="A109" s="1" t="s">
         <v>92</v>
       </c>
@@ -18209,7 +18209,7 @@
       <c r="BY109" s="1"/>
       <c r="BZ109" s="1"/>
     </row>
-    <row r="110" spans="1:78" ht="15.75">
+    <row r="110" spans="1:78" ht="15.75" hidden="1">
       <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
@@ -18385,7 +18385,7 @@
       <c r="BY110" s="1"/>
       <c r="BZ110" s="1"/>
     </row>
-    <row r="111" spans="1:78" ht="15.75">
+    <row r="111" spans="1:78" ht="15.75" hidden="1">
       <c r="A111" s="1" t="s">
         <v>92</v>
       </c>
@@ -18561,7 +18561,7 @@
       <c r="BY111" s="1"/>
       <c r="BZ111" s="1"/>
     </row>
-    <row r="112" spans="1:78" ht="15.75">
+    <row r="112" spans="1:78" ht="15.75" hidden="1">
       <c r="A112" s="1" t="s">
         <v>92</v>
       </c>
@@ -18731,7 +18731,7 @@
       <c r="BY112" s="1"/>
       <c r="BZ112" s="1"/>
     </row>
-    <row r="113" spans="1:78" ht="15.75">
+    <row r="113" spans="1:78" ht="15.75" hidden="1">
       <c r="A113" s="1" t="s">
         <v>92</v>
       </c>
@@ -18907,7 +18907,7 @@
       <c r="BY113" s="1"/>
       <c r="BZ113" s="1"/>
     </row>
-    <row r="114" spans="1:78" ht="15.75">
+    <row r="114" spans="1:78" ht="15.75" hidden="1">
       <c r="A114" s="1" t="s">
         <v>92</v>
       </c>
@@ -19083,7 +19083,7 @@
       <c r="BY114" s="2"/>
       <c r="BZ114" s="2"/>
     </row>
-    <row r="115" spans="1:78" ht="15.75">
+    <row r="115" spans="1:78" ht="15.75" hidden="1">
       <c r="A115" s="1" t="s">
         <v>92</v>
       </c>
@@ -19259,7 +19259,7 @@
       <c r="BY115" s="2"/>
       <c r="BZ115" s="2"/>
     </row>
-    <row r="116" spans="1:78" ht="15.75">
+    <row r="116" spans="1:78" ht="15.75" hidden="1">
       <c r="A116" s="1" t="s">
         <v>92</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="BY116" s="1"/>
       <c r="BZ116" s="1"/>
     </row>
-    <row r="117" spans="1:78" ht="15.75">
+    <row r="117" spans="1:78" ht="15.75" hidden="1">
       <c r="A117" s="1" t="s">
         <v>92</v>
       </c>
@@ -19599,7 +19599,7 @@
       <c r="BY117" s="1"/>
       <c r="BZ117" s="1"/>
     </row>
-    <row r="118" spans="1:78" ht="15.75">
+    <row r="118" spans="1:78" ht="15.75" hidden="1">
       <c r="A118" s="1" t="s">
         <v>92</v>
       </c>
@@ -19769,7 +19769,7 @@
       <c r="BY118" s="1"/>
       <c r="BZ118" s="1"/>
     </row>
-    <row r="119" spans="1:78" ht="15.75">
+    <row r="119" spans="1:78" ht="15.75" hidden="1">
       <c r="A119" s="1" t="s">
         <v>92</v>
       </c>
@@ -19939,7 +19939,7 @@
       <c r="BY119" s="1"/>
       <c r="BZ119" s="1"/>
     </row>
-    <row r="120" spans="1:78" ht="15.75">
+    <row r="120" spans="1:78" ht="15.75" hidden="1">
       <c r="A120" s="1" t="s">
         <v>92</v>
       </c>
@@ -20109,7 +20109,7 @@
       <c r="BY120" s="1"/>
       <c r="BZ120" s="1"/>
     </row>
-    <row r="121" spans="1:78" ht="15.75">
+    <row r="121" spans="1:78" ht="15.75" hidden="1">
       <c r="A121" s="1" t="s">
         <v>92</v>
       </c>
@@ -20279,7 +20279,7 @@
       <c r="BY121" s="1"/>
       <c r="BZ121" s="1"/>
     </row>
-    <row r="122" spans="1:78" ht="15.75">
+    <row r="122" spans="1:78" ht="15.75" hidden="1">
       <c r="A122" s="1" t="s">
         <v>92</v>
       </c>
@@ -20455,7 +20455,7 @@
       <c r="BY122" s="1"/>
       <c r="BZ122" s="1"/>
     </row>
-    <row r="123" spans="1:78" ht="15.75">
+    <row r="123" spans="1:78" ht="15.75" hidden="1">
       <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
@@ -20625,7 +20625,7 @@
       <c r="BY123" s="1"/>
       <c r="BZ123" s="1"/>
     </row>
-    <row r="124" spans="1:78" ht="15.75">
+    <row r="124" spans="1:78" ht="15.75" hidden="1">
       <c r="A124" s="1" t="s">
         <v>92</v>
       </c>
@@ -20795,7 +20795,7 @@
       <c r="BY124" s="1"/>
       <c r="BZ124" s="1"/>
     </row>
-    <row r="125" spans="1:78" ht="15.75">
+    <row r="125" spans="1:78" ht="15.75" hidden="1">
       <c r="A125" s="1" t="s">
         <v>92</v>
       </c>
@@ -20965,7 +20965,7 @@
       <c r="BY125" s="1"/>
       <c r="BZ125" s="1"/>
     </row>
-    <row r="126" spans="1:78" ht="15.75">
+    <row r="126" spans="1:78" ht="15.75" hidden="1">
       <c r="A126" s="1" t="s">
         <v>92</v>
       </c>
@@ -21135,7 +21135,7 @@
       <c r="BY126" s="1"/>
       <c r="BZ126" s="1"/>
     </row>
-    <row r="127" spans="1:78" ht="15.75">
+    <row r="127" spans="1:78" ht="15.75" hidden="1">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -21305,7 +21305,7 @@
       <c r="BY127" s="1"/>
       <c r="BZ127" s="1"/>
     </row>
-    <row r="128" spans="1:78" ht="15.75">
+    <row r="128" spans="1:78" ht="15.75" hidden="1">
       <c r="A128" s="1" t="s">
         <v>92</v>
       </c>
@@ -21475,7 +21475,7 @@
       <c r="BY128" s="1"/>
       <c r="BZ128" s="1"/>
     </row>
-    <row r="129" spans="1:78" ht="15.75">
+    <row r="129" spans="1:78" ht="15.75" hidden="1">
       <c r="A129" s="1" t="s">
         <v>92</v>
       </c>
@@ -21651,7 +21651,7 @@
       <c r="BY129" s="1"/>
       <c r="BZ129" s="1"/>
     </row>
-    <row r="130" spans="1:78" ht="15.75">
+    <row r="130" spans="1:78" ht="15.75" hidden="1">
       <c r="A130" s="1" t="s">
         <v>92</v>
       </c>
@@ -21821,7 +21821,7 @@
       <c r="BY130" s="1"/>
       <c r="BZ130" s="1"/>
     </row>
-    <row r="131" spans="1:78" ht="15.75">
+    <row r="131" spans="1:78" ht="15.75" hidden="1">
       <c r="A131" s="1" t="s">
         <v>92</v>
       </c>
@@ -21991,7 +21991,7 @@
       <c r="BY131" s="1"/>
       <c r="BZ131" s="1"/>
     </row>
-    <row r="132" spans="1:78" ht="15.75">
+    <row r="132" spans="1:78" ht="15.75" hidden="1">
       <c r="A132" s="1" t="s">
         <v>92</v>
       </c>
@@ -22167,7 +22167,7 @@
       <c r="BY132" s="2"/>
       <c r="BZ132" s="2"/>
     </row>
-    <row r="133" spans="1:78" ht="15.75">
+    <row r="133" spans="1:78" ht="15.75" hidden="1">
       <c r="A133" s="1" t="s">
         <v>92</v>
       </c>
@@ -22337,7 +22337,7 @@
       <c r="BY133" s="1"/>
       <c r="BZ133" s="1"/>
     </row>
-    <row r="134" spans="1:78" ht="15.75">
+    <row r="134" spans="1:78" ht="15.75" hidden="1">
       <c r="A134" s="1" t="s">
         <v>92</v>
       </c>
@@ -22513,7 +22513,7 @@
       <c r="BY134" s="1"/>
       <c r="BZ134" s="1"/>
     </row>
-    <row r="135" spans="1:78" ht="15.75">
+    <row r="135" spans="1:78" ht="15.75" hidden="1">
       <c r="A135" s="1" t="s">
         <v>92</v>
       </c>
@@ -22689,7 +22689,7 @@
       <c r="BY135" s="1"/>
       <c r="BZ135" s="1"/>
     </row>
-    <row r="136" spans="1:78" ht="15.75">
+    <row r="136" spans="1:78" ht="15.75" hidden="1">
       <c r="A136" s="1" t="s">
         <v>92</v>
       </c>
@@ -22865,7 +22865,7 @@
       <c r="BY136" s="1"/>
       <c r="BZ136" s="1"/>
     </row>
-    <row r="137" spans="1:78" ht="15.75">
+    <row r="137" spans="1:78" ht="15.75" hidden="1">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -23041,7 +23041,7 @@
       <c r="BY137" s="1"/>
       <c r="BZ137" s="1"/>
     </row>
-    <row r="138" spans="1:78" ht="15.75">
+    <row r="138" spans="1:78" ht="15.75" hidden="1">
       <c r="A138" s="1" t="s">
         <v>92</v>
       </c>
@@ -23217,7 +23217,7 @@
       <c r="BY138" s="2"/>
       <c r="BZ138" s="2"/>
     </row>
-    <row r="139" spans="1:78" ht="15.75">
+    <row r="139" spans="1:78" ht="15.75" hidden="1">
       <c r="A139" s="1" t="s">
         <v>92</v>
       </c>
@@ -23393,7 +23393,7 @@
       <c r="BY139" s="1"/>
       <c r="BZ139" s="1"/>
     </row>
-    <row r="140" spans="1:78" ht="15.75">
+    <row r="140" spans="1:78" ht="15.75" hidden="1">
       <c r="A140" s="1" t="s">
         <v>92</v>
       </c>
@@ -23569,7 +23569,7 @@
       <c r="BY140" s="1"/>
       <c r="BZ140" s="1"/>
     </row>
-    <row r="141" spans="1:78" ht="15.75">
+    <row r="141" spans="1:78" ht="15.75" hidden="1">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
@@ -23745,7 +23745,7 @@
       <c r="BY141" s="1"/>
       <c r="BZ141" s="1"/>
     </row>
-    <row r="142" spans="1:78" ht="15.75">
+    <row r="142" spans="1:78" ht="15.75" hidden="1">
       <c r="A142" s="1" t="s">
         <v>92</v>
       </c>
@@ -23911,7 +23911,7 @@
       <c r="BY142" s="1"/>
       <c r="BZ142" s="1"/>
     </row>
-    <row r="143" spans="1:78" ht="15.75">
+    <row r="143" spans="1:78" ht="15.75" hidden="1">
       <c r="A143" s="1" t="s">
         <v>92</v>
       </c>
@@ -24077,7 +24077,7 @@
       <c r="BY143" s="1"/>
       <c r="BZ143" s="1"/>
     </row>
-    <row r="144" spans="1:78" ht="15.75">
+    <row r="144" spans="1:78" ht="15.75" hidden="1">
       <c r="A144" s="1" t="s">
         <v>92</v>
       </c>
@@ -24243,7 +24243,7 @@
       <c r="BY144" s="1"/>
       <c r="BZ144" s="1"/>
     </row>
-    <row r="145" spans="1:78" ht="15.75">
+    <row r="145" spans="1:78" ht="15.75" hidden="1">
       <c r="A145" s="1" t="s">
         <v>92</v>
       </c>
@@ -24410,7 +24410,13 @@
       <c r="BZ145" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY112"/>
+  <autoFilter ref="A1:AY145">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="NQR 71"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24434,13 +24440,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10">
@@ -24488,7 +24494,7 @@
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -24524,7 +24530,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="23"/>
       <c r="C5" s="22"/>
       <c r="D5" s="26">
@@ -24547,7 +24553,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="23" t="s">
         <v>225</v>
       </c>
@@ -24582,7 +24588,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="23"/>
       <c r="C7" s="22"/>
       <c r="D7" s="20">
@@ -24604,7 +24610,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="23" t="s">
         <v>225</v>
       </c>
@@ -24638,7 +24644,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="23"/>
       <c r="C9" s="22"/>
       <c r="D9" s="21">
@@ -24660,7 +24666,7 @@
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="23" t="s">
         <v>225</v>
       </c>
@@ -24694,21 +24700,21 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="23"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="4"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="23"/>
       <c r="C12" s="22"/>
       <c r="D12">
@@ -24729,7 +24735,7 @@
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="C13" s="22"/>
       <c r="D13" s="20">
         <v>5.5940000000000003</v>
@@ -24750,7 +24756,7 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="23" t="s">
         <v>224</v>
       </c>
@@ -24781,7 +24787,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
       <c r="D15" s="26">
@@ -24805,7 +24811,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="23" t="s">
         <v>224</v>
       </c>
@@ -24820,7 +24826,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
       <c r="D17" s="20">
@@ -24842,7 +24848,7 @@
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="23" t="s">
         <v>224</v>
       </c>
@@ -24857,7 +24863,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="23"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21">
@@ -24879,7 +24885,7 @@
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="23" t="s">
         <v>224</v>
       </c>
@@ -24894,13 +24900,13 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:10">
@@ -24948,7 +24954,7 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -24984,7 +24990,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="23"/>
       <c r="C25" s="22"/>
       <c r="D25" s="26">
@@ -25007,7 +25013,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="23" t="s">
         <v>225</v>
       </c>
@@ -25042,7 +25048,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="23"/>
       <c r="C27" s="22"/>
       <c r="D27" s="20">
@@ -25064,7 +25070,7 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="23" t="s">
         <v>225</v>
       </c>
@@ -25098,7 +25104,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="23"/>
       <c r="C29" s="22"/>
       <c r="D29" s="21">
@@ -25120,7 +25126,7 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="23" t="s">
         <v>225</v>
       </c>
@@ -25154,21 +25160,21 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="23"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="4"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="23"/>
       <c r="C32" s="22"/>
       <c r="D32">
@@ -25189,7 +25195,7 @@
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="C33" s="22"/>
       <c r="D33" s="20">
         <v>5.5940000000000003</v>
@@ -25210,7 +25216,7 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="23" t="s">
         <v>224</v>
       </c>
@@ -25241,7 +25247,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="23"/>
       <c r="C35" s="22"/>
       <c r="D35" s="26">
@@ -25265,7 +25271,7 @@
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="23" t="s">
         <v>224</v>
       </c>
@@ -25280,7 +25286,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="23"/>
       <c r="C37" s="22"/>
       <c r="D37" s="20">
@@ -25302,7 +25308,7 @@
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="23" t="s">
         <v>224</v>
       </c>
@@ -25317,7 +25323,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="23"/>
       <c r="C39" s="22"/>
       <c r="D39" s="21">
@@ -25339,7 +25345,7 @@
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="23" t="s">
         <v>224</v>
       </c>

--- a/ALL DATA BACKUP.xlsx
+++ b/ALL DATA BACKUP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="325">
   <si>
     <t>Make</t>
   </si>
@@ -877,6 +877,132 @@
   </si>
   <si>
     <t>Max_Torque (rpm)</t>
+  </si>
+  <si>
+    <t>PICK UP EURO 4</t>
+  </si>
+  <si>
+    <t>NLR 85 T E4</t>
+  </si>
+  <si>
+    <t>NLR 85 TL E4</t>
+  </si>
+  <si>
+    <t>NLR 85 B E4</t>
+  </si>
+  <si>
+    <t>NLR 85 BL E4</t>
+  </si>
+  <si>
+    <t>NMR 81 T E4</t>
+  </si>
+  <si>
+    <t>NMR 81 T L E4</t>
+  </si>
+  <si>
+    <t>NMR 81 T (HD) (Open Cargo) E4</t>
+  </si>
+  <si>
+    <t>NMR 81 T (HD) PTO (Dump) E4</t>
+  </si>
+  <si>
+    <t>NQR 81 B E4</t>
+  </si>
+  <si>
+    <t>NPS 81 T E4</t>
+  </si>
+  <si>
+    <t>FRR 90 Q E4</t>
+  </si>
+  <si>
+    <t>FTR 90 P E4</t>
+  </si>
+  <si>
+    <t>FTR 90 S E4</t>
+  </si>
+  <si>
+    <t>FTR 90 T E4</t>
+  </si>
+  <si>
+    <t>FVR 34 L D E4</t>
+  </si>
+  <si>
+    <t>FVR 34 P E4</t>
+  </si>
+  <si>
+    <t>FVR 34 Q E4</t>
+  </si>
+  <si>
+    <t>FVR 34 S E4</t>
+  </si>
+  <si>
+    <t>FVR 34 U E4</t>
+  </si>
+  <si>
+    <t>FVM 34 N E4</t>
+  </si>
+  <si>
+    <t>FVM 34 U E4</t>
+  </si>
+  <si>
+    <t>FVM 34 N HP E4</t>
+  </si>
+  <si>
+    <t>FVM 34 U HP 5.8 E4</t>
+  </si>
+  <si>
+    <t>FVZ 34 L HP MX E4</t>
+  </si>
+  <si>
+    <t>FVZ 34 N HP D 6.1 E4</t>
+  </si>
+  <si>
+    <t>FVZ 34 U HP E4</t>
+  </si>
+  <si>
+    <t>GVR 34 J E4</t>
+  </si>
+  <si>
+    <t>GVR 34 J ABS E4</t>
+  </si>
+  <si>
+    <t>GVZ 34 K HP ABS E4</t>
+  </si>
+  <si>
+    <t>GXZ 60 K ABS E4</t>
+  </si>
+  <si>
+    <t>MEDIUM PICK UP E4</t>
+  </si>
+  <si>
+    <t>LIGHT TRUCK E4</t>
+  </si>
+  <si>
+    <t>MEDIUM TRUCK E4</t>
+  </si>
+  <si>
+    <t>4JA1-CR</t>
+  </si>
+  <si>
+    <t>4JJ1</t>
+  </si>
+  <si>
+    <t>4HL1</t>
+  </si>
+  <si>
+    <t>4HL2</t>
+  </si>
+  <si>
+    <t>4HL3</t>
+  </si>
+  <si>
+    <t>4HL4</t>
+  </si>
+  <si>
+    <t>4HL5</t>
+  </si>
+  <si>
+    <t>4HL6</t>
   </si>
 </sst>
 </file>
@@ -1409,14 +1535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:BZ145"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:BZ176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="J146" sqref="J146:J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,7 +1717,7 @@
       <c r="BA1" s="17"/>
       <c r="BB1" s="17"/>
     </row>
-    <row r="2" spans="1:54" ht="15.75" hidden="1">
+    <row r="2" spans="1:54" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1861,7 @@
       <c r="BA2" s="17"/>
       <c r="BB2" s="17"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75" hidden="1">
+    <row r="3" spans="1:54" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +2005,7 @@
       <c r="BA3" s="17"/>
       <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" hidden="1">
+    <row r="4" spans="1:54" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2149,7 @@
       <c r="BA4" s="17"/>
       <c r="BB4" s="17"/>
     </row>
-    <row r="5" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
+    <row r="5" spans="1:54" s="28" customFormat="1" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2293,7 @@
       <c r="BA5" s="27"/>
       <c r="BB5" s="27"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75" hidden="1">
+    <row r="6" spans="1:54" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2437,7 @@
       <c r="BA6" s="17"/>
       <c r="BB6" s="17"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75" hidden="1">
+    <row r="7" spans="1:54" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2455,7 +2581,7 @@
       <c r="BA7" s="17"/>
       <c r="BB7" s="17"/>
     </row>
-    <row r="8" spans="1:54" s="24" customFormat="1" ht="15.75" hidden="1">
+    <row r="8" spans="1:54" s="24" customFormat="1" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2725,7 @@
       <c r="BA8" s="19"/>
       <c r="BB8" s="19"/>
     </row>
-    <row r="9" spans="1:54" ht="15.75" hidden="1">
+    <row r="9" spans="1:54" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2871,7 @@
       <c r="BA9" s="17"/>
       <c r="BB9" s="17"/>
     </row>
-    <row r="10" spans="1:54" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="10" spans="1:54" s="31" customFormat="1" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +3017,7 @@
       <c r="BA10" s="30"/>
       <c r="BB10" s="30"/>
     </row>
-    <row r="11" spans="1:54" ht="15.75" hidden="1">
+    <row r="11" spans="1:54" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3163,7 @@
       <c r="BA11" s="17"/>
       <c r="BB11" s="17"/>
     </row>
-    <row r="12" spans="1:54" ht="15.75" hidden="1">
+    <row r="12" spans="1:54" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3325,7 +3451,7 @@
       <c r="BA13" s="17"/>
       <c r="BB13" s="17"/>
     </row>
-    <row r="14" spans="1:54" ht="15.75" hidden="1">
+    <row r="14" spans="1:54" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3593,7 @@
       <c r="BA14" s="17"/>
       <c r="BB14" s="17"/>
     </row>
-    <row r="15" spans="1:54" ht="15.75" hidden="1">
+    <row r="15" spans="1:54" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3735,7 @@
       <c r="BA15" s="17"/>
       <c r="BB15" s="17"/>
     </row>
-    <row r="16" spans="1:54" ht="15.75" hidden="1">
+    <row r="16" spans="1:54" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3877,7 @@
       <c r="BA16" s="17"/>
       <c r="BB16" s="17"/>
     </row>
-    <row r="17" spans="1:54" ht="15.75" hidden="1">
+    <row r="17" spans="1:54" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +4019,7 @@
       <c r="BA17" s="17"/>
       <c r="BB17" s="17"/>
     </row>
-    <row r="18" spans="1:54" ht="15.75" hidden="1">
+    <row r="18" spans="1:54" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4035,7 +4161,7 @@
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
     </row>
-    <row r="19" spans="1:54" ht="15.75" hidden="1">
+    <row r="19" spans="1:54" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +4307,7 @@
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="1:54" ht="15.75" hidden="1">
+    <row r="20" spans="1:54" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4453,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="1:54" ht="15.75" hidden="1">
+    <row r="21" spans="1:54" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4599,7 @@
       <c r="BA21" s="17"/>
       <c r="BB21" s="17"/>
     </row>
-    <row r="22" spans="1:54" ht="15.75" hidden="1">
+    <row r="22" spans="1:54" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4619,7 +4745,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="1:54" ht="15.75" hidden="1">
+    <row r="23" spans="1:54" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4891,7 @@
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
     </row>
-    <row r="24" spans="1:54" ht="15.75" hidden="1">
+    <row r="24" spans="1:54" ht="15.75">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -4911,7 +5037,7 @@
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
     </row>
-    <row r="25" spans="1:54" ht="15.75" hidden="1">
+    <row r="25" spans="1:54" ht="15.75">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5057,7 +5183,7 @@
       <c r="BA25" s="17"/>
       <c r="BB25" s="17"/>
     </row>
-    <row r="26" spans="1:54" ht="15.75" hidden="1">
+    <row r="26" spans="1:54" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -5203,7 +5329,7 @@
       <c r="BA26" s="17"/>
       <c r="BB26" s="17"/>
     </row>
-    <row r="27" spans="1:54" ht="15.75" hidden="1">
+    <row r="27" spans="1:54" ht="15.75">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5481,7 @@
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
     </row>
-    <row r="28" spans="1:54" ht="15.75" hidden="1">
+    <row r="28" spans="1:54" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -5507,7 +5633,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="1:54" ht="15.75" hidden="1">
+    <row r="29" spans="1:54" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5785,7 @@
       <c r="BA29" s="17"/>
       <c r="BB29" s="17"/>
     </row>
-    <row r="30" spans="1:54" ht="15.75" hidden="1">
+    <row r="30" spans="1:54" ht="15.75">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -5811,7 +5937,7 @@
       <c r="BA30" s="17"/>
       <c r="BB30" s="17"/>
     </row>
-    <row r="31" spans="1:54" ht="15.75" hidden="1">
+    <row r="31" spans="1:54" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +6089,7 @@
       <c r="BA31" s="17"/>
       <c r="BB31" s="17"/>
     </row>
-    <row r="32" spans="1:54" ht="15.75" hidden="1">
+    <row r="32" spans="1:54" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -6109,7 +6235,7 @@
       <c r="BA32" s="17"/>
       <c r="BB32" s="17"/>
     </row>
-    <row r="33" spans="1:54" ht="15.75" hidden="1">
+    <row r="33" spans="1:54" ht="15.75">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6385,7 @@
       <c r="BA33" s="17"/>
       <c r="BB33" s="17"/>
     </row>
-    <row r="34" spans="1:54" ht="15.75" hidden="1">
+    <row r="34" spans="1:54" ht="15.75">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -6409,7 +6535,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="1:54" ht="15.75" hidden="1">
+    <row r="35" spans="1:54" ht="15.75">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6685,7 @@
       <c r="BA35" s="17"/>
       <c r="BB35" s="17"/>
     </row>
-    <row r="36" spans="1:54" ht="15.75" hidden="1">
+    <row r="36" spans="1:54" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -6705,7 +6831,7 @@
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" hidden="1">
+    <row r="37" spans="1:54" ht="15.75">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -6851,7 +6977,7 @@
       <c r="BA37" s="17"/>
       <c r="BB37" s="17"/>
     </row>
-    <row r="38" spans="1:54" ht="15.75" hidden="1">
+    <row r="38" spans="1:54" ht="15.75">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -6997,7 +7123,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="1:54" ht="15.75" hidden="1">
+    <row r="39" spans="1:54" ht="15.75">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
@@ -7137,7 +7263,7 @@
       <c r="BA39" s="17"/>
       <c r="BB39" s="17"/>
     </row>
-    <row r="40" spans="1:54" ht="15.75" hidden="1">
+    <row r="40" spans="1:54" ht="15.75">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -7277,7 +7403,7 @@
       <c r="BA40" s="17"/>
       <c r="BB40" s="17"/>
     </row>
-    <row r="41" spans="1:54" ht="15.75" hidden="1">
+    <row r="41" spans="1:54" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
@@ -7423,7 +7549,7 @@
       <c r="BA41" s="17"/>
       <c r="BB41" s="17"/>
     </row>
-    <row r="42" spans="1:54" ht="15.75" hidden="1">
+    <row r="42" spans="1:54" ht="15.75">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -7569,7 +7695,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="1:54" ht="15.75" hidden="1">
+    <row r="43" spans="1:54" ht="15.75">
       <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
@@ -7715,7 +7841,7 @@
       <c r="BA43" s="17"/>
       <c r="BB43" s="17"/>
     </row>
-    <row r="44" spans="1:54" ht="15.75" hidden="1">
+    <row r="44" spans="1:54" ht="15.75">
       <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
@@ -7861,7 +7987,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
+    <row r="45" spans="1:54" s="28" customFormat="1" ht="15.75">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -8007,7 +8133,7 @@
       <c r="BA45" s="27"/>
       <c r="BB45" s="27"/>
     </row>
-    <row r="46" spans="1:54" ht="15.75" hidden="1">
+    <row r="46" spans="1:54" ht="15.75">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -8153,7 +8279,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="1:54" ht="15.75" hidden="1">
+    <row r="47" spans="1:54" ht="15.75">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -8299,7 +8425,7 @@
       <c r="BA47" s="17"/>
       <c r="BB47" s="17"/>
     </row>
-    <row r="48" spans="1:54" ht="15.75" hidden="1">
+    <row r="48" spans="1:54" ht="15.75">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -8445,7 +8571,7 @@
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
     </row>
-    <row r="49" spans="1:54" ht="15.75" hidden="1">
+    <row r="49" spans="1:54" ht="15.75">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -8591,7 +8717,7 @@
       <c r="BA49" s="17"/>
       <c r="BB49" s="17"/>
     </row>
-    <row r="50" spans="1:54" s="28" customFormat="1" ht="15.75" hidden="1">
+    <row r="50" spans="1:54" s="28" customFormat="1" ht="15.75">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -8737,7 +8863,7 @@
       <c r="BA50" s="27"/>
       <c r="BB50" s="27"/>
     </row>
-    <row r="51" spans="1:54" ht="15.75" hidden="1">
+    <row r="51" spans="1:54" ht="15.75">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -8883,7 +9009,7 @@
       <c r="BA51" s="17"/>
       <c r="BB51" s="17"/>
     </row>
-    <row r="52" spans="1:54" ht="15.75" hidden="1">
+    <row r="52" spans="1:54" ht="15.75">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -9029,7 +9155,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="1:54" ht="15.75" hidden="1">
+    <row r="53" spans="1:54" ht="15.75">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -9175,7 +9301,7 @@
       <c r="BA53" s="17"/>
       <c r="BB53" s="17"/>
     </row>
-    <row r="54" spans="1:54" ht="15.75" hidden="1">
+    <row r="54" spans="1:54" ht="15.75">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -9321,7 +9447,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="1:54" ht="15.75" hidden="1">
+    <row r="55" spans="1:54" ht="15.75">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -9469,7 +9595,7 @@
       <c r="BA55" s="17"/>
       <c r="BB55" s="17"/>
     </row>
-    <row r="56" spans="1:54" ht="15.75" hidden="1">
+    <row r="56" spans="1:54" ht="15.75">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -9617,7 +9743,7 @@
       <c r="BA56" s="17"/>
       <c r="BB56" s="17"/>
     </row>
-    <row r="57" spans="1:54" ht="15.75" hidden="1">
+    <row r="57" spans="1:54" ht="15.75">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -9765,7 +9891,7 @@
       <c r="BA57" s="17"/>
       <c r="BB57" s="17"/>
     </row>
-    <row r="58" spans="1:54" ht="15.75" hidden="1">
+    <row r="58" spans="1:54" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -9913,7 +10039,7 @@
       <c r="BA58" s="17"/>
       <c r="BB58" s="17"/>
     </row>
-    <row r="59" spans="1:54" ht="15.75" hidden="1">
+    <row r="59" spans="1:54" ht="15.75">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -10061,7 +10187,7 @@
       <c r="BA59" s="17"/>
       <c r="BB59" s="17"/>
     </row>
-    <row r="60" spans="1:54" ht="15.75" hidden="1">
+    <row r="60" spans="1:54" ht="15.75">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -10209,7 +10335,7 @@
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
     </row>
-    <row r="61" spans="1:54" ht="15.75" hidden="1">
+    <row r="61" spans="1:54" ht="15.75">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -10357,7 +10483,7 @@
       <c r="BA61" s="17"/>
       <c r="BB61" s="17"/>
     </row>
-    <row r="62" spans="1:54" ht="15.75" hidden="1">
+    <row r="62" spans="1:54" ht="15.75">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -10505,7 +10631,7 @@
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
     </row>
-    <row r="63" spans="1:54" ht="15.75" hidden="1">
+    <row r="63" spans="1:54" ht="15.75">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -10653,7 +10779,7 @@
       <c r="BA63" s="17"/>
       <c r="BB63" s="17"/>
     </row>
-    <row r="64" spans="1:54" ht="15.75" hidden="1">
+    <row r="64" spans="1:54" ht="15.75">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -10801,7 +10927,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="1:78" ht="15.75" hidden="1">
+    <row r="65" spans="1:78" ht="15.75">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -10949,7 +11075,7 @@
       <c r="BA65" s="17"/>
       <c r="BB65" s="17"/>
     </row>
-    <row r="66" spans="1:78" ht="15.75" hidden="1">
+    <row r="66" spans="1:78" ht="15.75">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -11097,7 +11223,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="1:78" ht="15.75" hidden="1">
+    <row r="67" spans="1:78" ht="15.75">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -11245,7 +11371,7 @@
       <c r="BA67" s="17"/>
       <c r="BB67" s="17"/>
     </row>
-    <row r="68" spans="1:78" ht="15.75" hidden="1">
+    <row r="68" spans="1:78" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -11399,7 +11525,7 @@
       <c r="BA68" s="17"/>
       <c r="BB68" s="17"/>
     </row>
-    <row r="69" spans="1:78" ht="15.75" hidden="1">
+    <row r="69" spans="1:78" ht="15.75">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -11555,7 +11681,7 @@
       <c r="BA69" s="17"/>
       <c r="BB69" s="17"/>
     </row>
-    <row r="70" spans="1:78" ht="15.75" hidden="1">
+    <row r="70" spans="1:78" ht="15.75">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -11701,7 +11827,7 @@
       <c r="BA70" s="17"/>
       <c r="BB70" s="17"/>
     </row>
-    <row r="71" spans="1:78" ht="15.75" hidden="1">
+    <row r="71" spans="1:78" ht="15.75">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -11849,7 +11975,7 @@
       <c r="BA71" s="17"/>
       <c r="BB71" s="17"/>
     </row>
-    <row r="72" spans="1:78" ht="15.75" hidden="1">
+    <row r="72" spans="1:78" ht="15.75">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -12005,7 +12131,7 @@
       <c r="BA72" s="17"/>
       <c r="BB72" s="17"/>
     </row>
-    <row r="73" spans="1:78" ht="15.75" hidden="1">
+    <row r="73" spans="1:78" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>137</v>
       </c>
@@ -12159,7 +12285,7 @@
       <c r="BA73" s="17"/>
       <c r="BB73" s="17"/>
     </row>
-    <row r="74" spans="1:78" ht="15.75" hidden="1">
+    <row r="74" spans="1:78" ht="15.75">
       <c r="A74" s="1" t="s">
         <v>137</v>
       </c>
@@ -12313,7 +12439,7 @@
       <c r="BA74" s="17"/>
       <c r="BB74" s="17"/>
     </row>
-    <row r="75" spans="1:78" ht="15.75" hidden="1">
+    <row r="75" spans="1:78" ht="15.75">
       <c r="A75" s="1" t="s">
         <v>137</v>
       </c>
@@ -12469,7 +12595,7 @@
       <c r="BA75" s="17"/>
       <c r="BB75" s="17"/>
     </row>
-    <row r="76" spans="1:78" ht="15.75" hidden="1">
+    <row r="76" spans="1:78" ht="15.75">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
@@ -12623,7 +12749,7 @@
       <c r="BA76" s="17"/>
       <c r="BB76" s="17"/>
     </row>
-    <row r="77" spans="1:78" ht="15.75" hidden="1">
+    <row r="77" spans="1:78" ht="15.75">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -12777,7 +12903,7 @@
       <c r="BA77" s="17"/>
       <c r="BB77" s="17"/>
     </row>
-    <row r="78" spans="1:78" ht="15.75" hidden="1">
+    <row r="78" spans="1:78" ht="15.75">
       <c r="A78" s="1" t="s">
         <v>137</v>
       </c>
@@ -12931,7 +13057,7 @@
       <c r="BA78" s="17"/>
       <c r="BB78" s="17"/>
     </row>
-    <row r="79" spans="1:78" ht="15.75" hidden="1">
+    <row r="79" spans="1:78" ht="15.75">
       <c r="A79" s="1" t="s">
         <v>137</v>
       </c>
@@ -13085,7 +13211,7 @@
       <c r="BA79" s="17"/>
       <c r="BB79" s="17"/>
     </row>
-    <row r="80" spans="1:78" s="28" customFormat="1" ht="15.75" hidden="1">
+    <row r="80" spans="1:78" s="28" customFormat="1" ht="15.75">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -13253,7 +13379,7 @@
       <c r="BY80" s="1"/>
       <c r="BZ80" s="1"/>
     </row>
-    <row r="81" spans="1:78" ht="15.75" hidden="1">
+    <row r="81" spans="1:78" ht="15.75">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -13421,7 +13547,7 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
     </row>
-    <row r="82" spans="1:78" ht="15.75" hidden="1">
+    <row r="82" spans="1:78" ht="15.75">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -13589,7 +13715,7 @@
       <c r="BY82" s="1"/>
       <c r="BZ82" s="1"/>
     </row>
-    <row r="83" spans="1:78" ht="15.75" hidden="1">
+    <row r="83" spans="1:78" ht="15.75">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -13757,7 +13883,7 @@
       <c r="BY83" s="1"/>
       <c r="BZ83" s="1"/>
     </row>
-    <row r="84" spans="1:78" ht="15.75" hidden="1">
+    <row r="84" spans="1:78" ht="15.75">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -13925,7 +14051,7 @@
       <c r="BY84" s="1"/>
       <c r="BZ84" s="1"/>
     </row>
-    <row r="85" spans="1:78" ht="15.75" hidden="1">
+    <row r="85" spans="1:78" ht="15.75">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -14093,7 +14219,7 @@
       <c r="BY85" s="1"/>
       <c r="BZ85" s="1"/>
     </row>
-    <row r="86" spans="1:78" s="28" customFormat="1" ht="15.75" hidden="1">
+    <row r="86" spans="1:78" s="28" customFormat="1" ht="15.75">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -14261,7 +14387,7 @@
       <c r="BY86" s="1"/>
       <c r="BZ86" s="1"/>
     </row>
-    <row r="87" spans="1:78" ht="15.75" hidden="1">
+    <row r="87" spans="1:78" ht="15.75">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -14429,7 +14555,7 @@
       <c r="BY87" s="1"/>
       <c r="BZ87" s="1"/>
     </row>
-    <row r="88" spans="1:78" ht="15.75" hidden="1">
+    <row r="88" spans="1:78" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -14597,7 +14723,7 @@
       <c r="BY88" s="1"/>
       <c r="BZ88" s="1"/>
     </row>
-    <row r="89" spans="1:78" ht="15.75" hidden="1">
+    <row r="89" spans="1:78" ht="15.75">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -14765,7 +14891,7 @@
       <c r="BY89" s="1"/>
       <c r="BZ89" s="1"/>
     </row>
-    <row r="90" spans="1:78" ht="15.75" hidden="1">
+    <row r="90" spans="1:78" ht="15.75">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -14933,7 +15059,7 @@
       <c r="BY90" s="1"/>
       <c r="BZ90" s="1"/>
     </row>
-    <row r="91" spans="1:78" ht="15.75" hidden="1">
+    <row r="91" spans="1:78" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -15101,7 +15227,7 @@
       <c r="BY91" s="1"/>
       <c r="BZ91" s="1"/>
     </row>
-    <row r="92" spans="1:78" ht="15.75" hidden="1">
+    <row r="92" spans="1:78" ht="15.75">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -15269,7 +15395,7 @@
       <c r="BY92" s="1"/>
       <c r="BZ92" s="1"/>
     </row>
-    <row r="93" spans="1:78" ht="15.75" hidden="1">
+    <row r="93" spans="1:78" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -15437,7 +15563,7 @@
       <c r="BY93" s="1"/>
       <c r="BZ93" s="1"/>
     </row>
-    <row r="94" spans="1:78" ht="15.75" hidden="1">
+    <row r="94" spans="1:78" ht="15.75">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -15605,7 +15731,7 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
     </row>
-    <row r="95" spans="1:78" ht="15.75" hidden="1">
+    <row r="95" spans="1:78" ht="15.75">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -15775,7 +15901,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
     </row>
-    <row r="96" spans="1:78" ht="15.75" hidden="1">
+    <row r="96" spans="1:78" ht="15.75">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -15945,7 +16071,7 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
     </row>
-    <row r="97" spans="1:78" ht="15.75" hidden="1">
+    <row r="97" spans="1:78" ht="15.75">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -16115,7 +16241,7 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
     </row>
-    <row r="98" spans="1:78" ht="15.75" hidden="1">
+    <row r="98" spans="1:78" ht="15.75">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
@@ -16285,7 +16411,7 @@
       <c r="BY98" s="1"/>
       <c r="BZ98" s="1"/>
     </row>
-    <row r="99" spans="1:78" ht="15.75" hidden="1">
+    <row r="99" spans="1:78" ht="15.75">
       <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
@@ -16455,7 +16581,7 @@
       <c r="BY99" s="1"/>
       <c r="BZ99" s="1"/>
     </row>
-    <row r="100" spans="1:78" ht="15.75" hidden="1">
+    <row r="100" spans="1:78" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
@@ -16625,7 +16751,7 @@
       <c r="BY100" s="1"/>
       <c r="BZ100" s="1"/>
     </row>
-    <row r="101" spans="1:78" ht="15.75" hidden="1">
+    <row r="101" spans="1:78" ht="15.75">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -16801,7 +16927,7 @@
       <c r="BY101" s="1"/>
       <c r="BZ101" s="1"/>
     </row>
-    <row r="102" spans="1:78" ht="15.75" hidden="1">
+    <row r="102" spans="1:78" ht="15.75">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -16977,7 +17103,7 @@
       <c r="BY102" s="1"/>
       <c r="BZ102" s="1"/>
     </row>
-    <row r="103" spans="1:78" ht="15.75" hidden="1">
+    <row r="103" spans="1:78" ht="15.75">
       <c r="A103" s="1" t="s">
         <v>92</v>
       </c>
@@ -17153,7 +17279,7 @@
       <c r="BY103" s="1"/>
       <c r="BZ103" s="1"/>
     </row>
-    <row r="104" spans="1:78" ht="15.75" hidden="1">
+    <row r="104" spans="1:78" ht="15.75">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -17329,7 +17455,7 @@
       <c r="BY104" s="1"/>
       <c r="BZ104" s="1"/>
     </row>
-    <row r="105" spans="1:78" ht="15.75" hidden="1">
+    <row r="105" spans="1:78" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>92</v>
       </c>
@@ -17505,7 +17631,7 @@
       <c r="BY105" s="1"/>
       <c r="BZ105" s="1"/>
     </row>
-    <row r="106" spans="1:78" ht="15.75" hidden="1">
+    <row r="106" spans="1:78" ht="15.75">
       <c r="A106" s="1" t="s">
         <v>92</v>
       </c>
@@ -17681,7 +17807,7 @@
       <c r="BY106" s="1"/>
       <c r="BZ106" s="1"/>
     </row>
-    <row r="107" spans="1:78" ht="15.75" hidden="1">
+    <row r="107" spans="1:78" ht="15.75">
       <c r="A107" s="1" t="s">
         <v>92</v>
       </c>
@@ -17857,7 +17983,7 @@
       <c r="BY107" s="1"/>
       <c r="BZ107" s="1"/>
     </row>
-    <row r="108" spans="1:78" ht="15.75" hidden="1">
+    <row r="108" spans="1:78" ht="15.75">
       <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
@@ -18033,7 +18159,7 @@
       <c r="BY108" s="1"/>
       <c r="BZ108" s="1"/>
     </row>
-    <row r="109" spans="1:78" ht="15.75" hidden="1">
+    <row r="109" spans="1:78" ht="15.75">
       <c r="A109" s="1" t="s">
         <v>92</v>
       </c>
@@ -18209,7 +18335,7 @@
       <c r="BY109" s="1"/>
       <c r="BZ109" s="1"/>
     </row>
-    <row r="110" spans="1:78" ht="15.75" hidden="1">
+    <row r="110" spans="1:78" ht="15.75">
       <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
@@ -18385,7 +18511,7 @@
       <c r="BY110" s="1"/>
       <c r="BZ110" s="1"/>
     </row>
-    <row r="111" spans="1:78" ht="15.75" hidden="1">
+    <row r="111" spans="1:78" ht="15.75">
       <c r="A111" s="1" t="s">
         <v>92</v>
       </c>
@@ -18561,7 +18687,7 @@
       <c r="BY111" s="1"/>
       <c r="BZ111" s="1"/>
     </row>
-    <row r="112" spans="1:78" ht="15.75" hidden="1">
+    <row r="112" spans="1:78" ht="15.75">
       <c r="A112" s="1" t="s">
         <v>92</v>
       </c>
@@ -18731,7 +18857,7 @@
       <c r="BY112" s="1"/>
       <c r="BZ112" s="1"/>
     </row>
-    <row r="113" spans="1:78" ht="15.75" hidden="1">
+    <row r="113" spans="1:78" ht="15.75">
       <c r="A113" s="1" t="s">
         <v>92</v>
       </c>
@@ -18907,7 +19033,7 @@
       <c r="BY113" s="1"/>
       <c r="BZ113" s="1"/>
     </row>
-    <row r="114" spans="1:78" ht="15.75" hidden="1">
+    <row r="114" spans="1:78" ht="15.75">
       <c r="A114" s="1" t="s">
         <v>92</v>
       </c>
@@ -19083,7 +19209,7 @@
       <c r="BY114" s="2"/>
       <c r="BZ114" s="2"/>
     </row>
-    <row r="115" spans="1:78" ht="15.75" hidden="1">
+    <row r="115" spans="1:78" ht="15.75">
       <c r="A115" s="1" t="s">
         <v>92</v>
       </c>
@@ -19259,7 +19385,7 @@
       <c r="BY115" s="2"/>
       <c r="BZ115" s="2"/>
     </row>
-    <row r="116" spans="1:78" ht="15.75" hidden="1">
+    <row r="116" spans="1:78" ht="15.75">
       <c r="A116" s="1" t="s">
         <v>92</v>
       </c>
@@ -19429,7 +19555,7 @@
       <c r="BY116" s="1"/>
       <c r="BZ116" s="1"/>
     </row>
-    <row r="117" spans="1:78" ht="15.75" hidden="1">
+    <row r="117" spans="1:78" ht="15.75">
       <c r="A117" s="1" t="s">
         <v>92</v>
       </c>
@@ -19599,7 +19725,7 @@
       <c r="BY117" s="1"/>
       <c r="BZ117" s="1"/>
     </row>
-    <row r="118" spans="1:78" ht="15.75" hidden="1">
+    <row r="118" spans="1:78" ht="15.75">
       <c r="A118" s="1" t="s">
         <v>92</v>
       </c>
@@ -19769,7 +19895,7 @@
       <c r="BY118" s="1"/>
       <c r="BZ118" s="1"/>
     </row>
-    <row r="119" spans="1:78" ht="15.75" hidden="1">
+    <row r="119" spans="1:78" ht="15.75">
       <c r="A119" s="1" t="s">
         <v>92</v>
       </c>
@@ -19939,7 +20065,7 @@
       <c r="BY119" s="1"/>
       <c r="BZ119" s="1"/>
     </row>
-    <row r="120" spans="1:78" ht="15.75" hidden="1">
+    <row r="120" spans="1:78" ht="15.75">
       <c r="A120" s="1" t="s">
         <v>92</v>
       </c>
@@ -20109,7 +20235,7 @@
       <c r="BY120" s="1"/>
       <c r="BZ120" s="1"/>
     </row>
-    <row r="121" spans="1:78" ht="15.75" hidden="1">
+    <row r="121" spans="1:78" ht="15.75">
       <c r="A121" s="1" t="s">
         <v>92</v>
       </c>
@@ -20279,7 +20405,7 @@
       <c r="BY121" s="1"/>
       <c r="BZ121" s="1"/>
     </row>
-    <row r="122" spans="1:78" ht="15.75" hidden="1">
+    <row r="122" spans="1:78" ht="15.75">
       <c r="A122" s="1" t="s">
         <v>92</v>
       </c>
@@ -20455,7 +20581,7 @@
       <c r="BY122" s="1"/>
       <c r="BZ122" s="1"/>
     </row>
-    <row r="123" spans="1:78" ht="15.75" hidden="1">
+    <row r="123" spans="1:78" ht="15.75">
       <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
@@ -20625,7 +20751,7 @@
       <c r="BY123" s="1"/>
       <c r="BZ123" s="1"/>
     </row>
-    <row r="124" spans="1:78" ht="15.75" hidden="1">
+    <row r="124" spans="1:78" ht="15.75">
       <c r="A124" s="1" t="s">
         <v>92</v>
       </c>
@@ -20795,7 +20921,7 @@
       <c r="BY124" s="1"/>
       <c r="BZ124" s="1"/>
     </row>
-    <row r="125" spans="1:78" ht="15.75" hidden="1">
+    <row r="125" spans="1:78" ht="15.75">
       <c r="A125" s="1" t="s">
         <v>92</v>
       </c>
@@ -20965,7 +21091,7 @@
       <c r="BY125" s="1"/>
       <c r="BZ125" s="1"/>
     </row>
-    <row r="126" spans="1:78" ht="15.75" hidden="1">
+    <row r="126" spans="1:78" ht="15.75">
       <c r="A126" s="1" t="s">
         <v>92</v>
       </c>
@@ -21135,7 +21261,7 @@
       <c r="BY126" s="1"/>
       <c r="BZ126" s="1"/>
     </row>
-    <row r="127" spans="1:78" ht="15.75" hidden="1">
+    <row r="127" spans="1:78" ht="15.75">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -21305,7 +21431,7 @@
       <c r="BY127" s="1"/>
       <c r="BZ127" s="1"/>
     </row>
-    <row r="128" spans="1:78" ht="15.75" hidden="1">
+    <row r="128" spans="1:78" ht="15.75">
       <c r="A128" s="1" t="s">
         <v>92</v>
       </c>
@@ -21475,7 +21601,7 @@
       <c r="BY128" s="1"/>
       <c r="BZ128" s="1"/>
     </row>
-    <row r="129" spans="1:78" ht="15.75" hidden="1">
+    <row r="129" spans="1:78" ht="15.75">
       <c r="A129" s="1" t="s">
         <v>92</v>
       </c>
@@ -21651,7 +21777,7 @@
       <c r="BY129" s="1"/>
       <c r="BZ129" s="1"/>
     </row>
-    <row r="130" spans="1:78" ht="15.75" hidden="1">
+    <row r="130" spans="1:78" ht="15.75">
       <c r="A130" s="1" t="s">
         <v>92</v>
       </c>
@@ -21821,7 +21947,7 @@
       <c r="BY130" s="1"/>
       <c r="BZ130" s="1"/>
     </row>
-    <row r="131" spans="1:78" ht="15.75" hidden="1">
+    <row r="131" spans="1:78" ht="15.75">
       <c r="A131" s="1" t="s">
         <v>92</v>
       </c>
@@ -21991,7 +22117,7 @@
       <c r="BY131" s="1"/>
       <c r="BZ131" s="1"/>
     </row>
-    <row r="132" spans="1:78" ht="15.75" hidden="1">
+    <row r="132" spans="1:78" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>92</v>
       </c>
@@ -22167,7 +22293,7 @@
       <c r="BY132" s="2"/>
       <c r="BZ132" s="2"/>
     </row>
-    <row r="133" spans="1:78" ht="15.75" hidden="1">
+    <row r="133" spans="1:78" ht="15.75">
       <c r="A133" s="1" t="s">
         <v>92</v>
       </c>
@@ -22337,7 +22463,7 @@
       <c r="BY133" s="1"/>
       <c r="BZ133" s="1"/>
     </row>
-    <row r="134" spans="1:78" ht="15.75" hidden="1">
+    <row r="134" spans="1:78" ht="15.75">
       <c r="A134" s="1" t="s">
         <v>92</v>
       </c>
@@ -22513,7 +22639,7 @@
       <c r="BY134" s="1"/>
       <c r="BZ134" s="1"/>
     </row>
-    <row r="135" spans="1:78" ht="15.75" hidden="1">
+    <row r="135" spans="1:78" ht="15.75">
       <c r="A135" s="1" t="s">
         <v>92</v>
       </c>
@@ -22689,7 +22815,7 @@
       <c r="BY135" s="1"/>
       <c r="BZ135" s="1"/>
     </row>
-    <row r="136" spans="1:78" ht="15.75" hidden="1">
+    <row r="136" spans="1:78" ht="15.75">
       <c r="A136" s="1" t="s">
         <v>92</v>
       </c>
@@ -22865,7 +22991,7 @@
       <c r="BY136" s="1"/>
       <c r="BZ136" s="1"/>
     </row>
-    <row r="137" spans="1:78" ht="15.75" hidden="1">
+    <row r="137" spans="1:78" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -23041,7 +23167,7 @@
       <c r="BY137" s="1"/>
       <c r="BZ137" s="1"/>
     </row>
-    <row r="138" spans="1:78" ht="15.75" hidden="1">
+    <row r="138" spans="1:78" ht="15.75">
       <c r="A138" s="1" t="s">
         <v>92</v>
       </c>
@@ -23217,7 +23343,7 @@
       <c r="BY138" s="2"/>
       <c r="BZ138" s="2"/>
     </row>
-    <row r="139" spans="1:78" ht="15.75" hidden="1">
+    <row r="139" spans="1:78" ht="15.75">
       <c r="A139" s="1" t="s">
         <v>92</v>
       </c>
@@ -23393,7 +23519,7 @@
       <c r="BY139" s="1"/>
       <c r="BZ139" s="1"/>
     </row>
-    <row r="140" spans="1:78" ht="15.75" hidden="1">
+    <row r="140" spans="1:78" ht="15.75">
       <c r="A140" s="1" t="s">
         <v>92</v>
       </c>
@@ -23569,7 +23695,7 @@
       <c r="BY140" s="1"/>
       <c r="BZ140" s="1"/>
     </row>
-    <row r="141" spans="1:78" ht="15.75" hidden="1">
+    <row r="141" spans="1:78" ht="15.75">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
@@ -23745,7 +23871,7 @@
       <c r="BY141" s="1"/>
       <c r="BZ141" s="1"/>
     </row>
-    <row r="142" spans="1:78" ht="15.75" hidden="1">
+    <row r="142" spans="1:78" ht="15.75">
       <c r="A142" s="1" t="s">
         <v>92</v>
       </c>
@@ -23911,7 +24037,7 @@
       <c r="BY142" s="1"/>
       <c r="BZ142" s="1"/>
     </row>
-    <row r="143" spans="1:78" ht="15.75" hidden="1">
+    <row r="143" spans="1:78" ht="15.75">
       <c r="A143" s="1" t="s">
         <v>92</v>
       </c>
@@ -24077,7 +24203,7 @@
       <c r="BY143" s="1"/>
       <c r="BZ143" s="1"/>
     </row>
-    <row r="144" spans="1:78" ht="15.75" hidden="1">
+    <row r="144" spans="1:78" ht="15.75">
       <c r="A144" s="1" t="s">
         <v>92</v>
       </c>
@@ -24243,7 +24369,7 @@
       <c r="BY144" s="1"/>
       <c r="BZ144" s="1"/>
     </row>
-    <row r="145" spans="1:78" ht="15.75" hidden="1">
+    <row r="145" spans="1:78" ht="15.75">
       <c r="A145" s="1" t="s">
         <v>92</v>
       </c>
@@ -24409,14 +24535,721 @@
       <c r="BY145" s="1"/>
       <c r="BZ145" s="1"/>
     </row>
+    <row r="146" spans="1:78" ht="15.75">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2950</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M146" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:78" ht="15.75">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>284</v>
+      </c>
+      <c r="H147" s="1">
+        <v>5120</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M147" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:78" ht="15.75">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>285</v>
+      </c>
+      <c r="H148" s="1">
+        <v>5120</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M148" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:78" ht="15.75">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>286</v>
+      </c>
+      <c r="H149" s="1">
+        <v>5120</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M149" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:78" ht="15.75">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>287</v>
+      </c>
+      <c r="H150" s="1">
+        <v>5120</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M150" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:78" ht="15.75">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>288</v>
+      </c>
+      <c r="H151" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:78" ht="15.75">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>289</v>
+      </c>
+      <c r="H152" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:78" ht="15.75">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>290</v>
+      </c>
+      <c r="H153" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M153" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:78" ht="15.75">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>291</v>
+      </c>
+      <c r="H154" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M154" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:78" ht="15.75">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>292</v>
+      </c>
+      <c r="H155" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M155" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:78" ht="15.75">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>293</v>
+      </c>
+      <c r="H156" s="1">
+        <v>8250</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M156" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:78" ht="15.75">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>294</v>
+      </c>
+      <c r="H157">
+        <v>10000</v>
+      </c>
+      <c r="J157" t="s">
+        <v>66</v>
+      </c>
+      <c r="M157">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:78" ht="15.75">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>295</v>
+      </c>
+      <c r="H158">
+        <v>14000</v>
+      </c>
+      <c r="J158" t="s">
+        <v>67</v>
+      </c>
+      <c r="M158">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:78" ht="15.75">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" t="s">
+        <v>296</v>
+      </c>
+      <c r="H159">
+        <v>14000</v>
+      </c>
+      <c r="J159" t="s">
+        <v>67</v>
+      </c>
+      <c r="M159">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:78" ht="15.75">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>297</v>
+      </c>
+      <c r="H160">
+        <v>14000</v>
+      </c>
+      <c r="J160" t="s">
+        <v>67</v>
+      </c>
+      <c r="M160">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.75">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>298</v>
+      </c>
+      <c r="H161">
+        <v>16000</v>
+      </c>
+      <c r="J161" t="s">
+        <v>59</v>
+      </c>
+      <c r="M161">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.75">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
+        <v>299</v>
+      </c>
+      <c r="H162">
+        <v>16000</v>
+      </c>
+      <c r="J162" t="s">
+        <v>59</v>
+      </c>
+      <c r="M162">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.75">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>300</v>
+      </c>
+      <c r="H163">
+        <v>16000</v>
+      </c>
+      <c r="J163" t="s">
+        <v>59</v>
+      </c>
+      <c r="M163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.75">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" t="s">
+        <v>301</v>
+      </c>
+      <c r="H164">
+        <v>16000</v>
+      </c>
+      <c r="J164" t="s">
+        <v>59</v>
+      </c>
+      <c r="M164">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.75">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>302</v>
+      </c>
+      <c r="H165">
+        <v>16000</v>
+      </c>
+      <c r="J165" t="s">
+        <v>59</v>
+      </c>
+      <c r="M165">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15.75">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" t="s">
+        <v>303</v>
+      </c>
+      <c r="H166">
+        <v>16000</v>
+      </c>
+      <c r="J166" t="s">
+        <v>59</v>
+      </c>
+      <c r="M166">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15.75">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" t="s">
+        <v>304</v>
+      </c>
+      <c r="H167">
+        <v>26000</v>
+      </c>
+      <c r="J167" t="s">
+        <v>59</v>
+      </c>
+      <c r="M167">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15.75">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" t="s">
+        <v>305</v>
+      </c>
+      <c r="H168">
+        <v>26000</v>
+      </c>
+      <c r="J168" t="s">
+        <v>62</v>
+      </c>
+      <c r="M168">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15.75">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" t="s">
+        <v>306</v>
+      </c>
+      <c r="H169">
+        <v>26000</v>
+      </c>
+      <c r="J169" t="s">
+        <v>62</v>
+      </c>
+      <c r="M169">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15.75">
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>307</v>
+      </c>
+      <c r="H170">
+        <v>26000</v>
+      </c>
+      <c r="J170" t="s">
+        <v>62</v>
+      </c>
+      <c r="M170">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15.75">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" t="s">
+        <v>308</v>
+      </c>
+      <c r="H171">
+        <v>26000</v>
+      </c>
+      <c r="J171" t="s">
+        <v>62</v>
+      </c>
+      <c r="M171">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15.75">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" t="s">
+        <v>309</v>
+      </c>
+      <c r="H172">
+        <v>26000</v>
+      </c>
+      <c r="J172" t="s">
+        <v>62</v>
+      </c>
+      <c r="M172">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15.75">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s">
+        <v>310</v>
+      </c>
+      <c r="H173">
+        <v>16000</v>
+      </c>
+      <c r="J173" t="s">
+        <v>59</v>
+      </c>
+      <c r="M173">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15.75">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s">
+        <v>311</v>
+      </c>
+      <c r="H174">
+        <v>26000</v>
+      </c>
+      <c r="J174" t="s">
+        <v>62</v>
+      </c>
+      <c r="M174">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15.75">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" t="s">
+        <v>312</v>
+      </c>
+      <c r="H175">
+        <v>26000</v>
+      </c>
+      <c r="J175" t="s">
+        <v>62</v>
+      </c>
+      <c r="M175">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15.75">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" t="s">
+        <v>313</v>
+      </c>
+      <c r="H176">
+        <v>26000</v>
+      </c>
+      <c r="J176" t="s">
+        <v>65</v>
+      </c>
+      <c r="M176">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AY145">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="NQR 71"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AY145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
